--- a/models/matouqin/Data/dat1.xlsx
+++ b/models/matouqin/Data/dat1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\model\yayue\models\matouqin\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACA3805-9D9C-4364-B523-C496E9F89214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C005C7E-534D-4FB9-AA9E-8D46BEB974F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="3" xr2:uid="{AEEBE647-0CC9-4089-B5C6-ED9E548DECB5}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="16800" windowHeight="9750" activeTab="4" xr2:uid="{AEEBE647-0CC9-4089-B5C6-ED9E548DECB5}"/>
   </bookViews>
   <sheets>
     <sheet name="cf" sheetId="1" r:id="rId1"/>
@@ -351,7 +351,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Time period</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -455,6 +455,9 @@
   <si>
     <t>hmi</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tank2</t>
   </si>
 </sst>
 </file>
@@ -910,7 +913,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -931,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -939,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.03</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -947,7 +950,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -955,7 +958,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.23</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -963,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.28999999999999998</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1050,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA09C07B-97B6-4944-81CD-58D528438C11}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1069,7 +1072,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>0.8</v>
@@ -1089,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39AA25D-8DDD-4DE2-BB31-FBA4668F09F8}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1132,10 +1135,10 @@
         <v>4.5</v>
       </c>
       <c r="E2" s="1">
-        <v>7</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F2" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
   </sheetData>
@@ -1147,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{577A8CDB-DCE2-4409-ABF8-20369696E92F}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1213,10 +1216,42 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="J2">
-        <v>5.0000000000000001E-3</v>
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>500</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0.03</v>
+      </c>
+      <c r="J3">
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
   </sheetData>
@@ -1230,7 +1265,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1269,10 +1304,10 @@
         <v>0.7</v>
       </c>
       <c r="E2">
-        <v>0.08</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F2">
-        <v>5.0000000000000001E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
   </sheetData>

--- a/models/matouqin/Data/dat1.xlsx
+++ b/models/matouqin/Data/dat1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\model\yayue\models\matouqin\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE81A309-35D8-4ED8-8531-2B775539BD9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE1F1F3-717A-4F02-958B-AE302D377603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="4" xr2:uid="{AEEBE647-0CC9-4089-B5C6-ED9E548DECB5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="5" xr2:uid="{AEEBE647-0CC9-4089-B5C6-ED9E548DECB5}"/>
   </bookViews>
   <sheets>
     <sheet name="cf" sheetId="1" r:id="rId1"/>
@@ -1307,11 +1307,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hmi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Tank2</t>
   </si>
   <si>
-    <t>Tank2</t>
+    <t>hini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -71915,7 +71915,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -71986,8 +71986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39AA25D-8DDD-4DE2-BB31-FBA4668F09F8}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -72029,7 +72029,7 @@
         <v>4.5</v>
       </c>
       <c r="E2" s="1">
-        <v>7</v>
+        <v>0.7</v>
       </c>
       <c r="F2" s="1">
         <v>0.05</v>
@@ -72046,8 +72046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{577A8CDB-DCE2-4409-ABF8-20369696E92F}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -72066,7 +72066,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -72118,7 +72118,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>500</v>
@@ -72160,7 +72160,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/models/matouqin/Data/dat1.xlsx
+++ b/models/matouqin/Data/dat1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\model\yayue\models\matouqin\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE1F1F3-717A-4F02-958B-AE302D377603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B43689A-AF76-48C4-BE23-9198D5D899BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="5" xr2:uid="{AEEBE647-0CC9-4089-B5C6-ED9E548DECB5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="3" xr2:uid="{AEEBE647-0CC9-4089-B5C6-ED9E548DECB5}"/>
   </bookViews>
   <sheets>
     <sheet name="cf" sheetId="1" r:id="rId1"/>
@@ -71947,8 +71947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA09C07B-97B6-4944-81CD-58D528438C11}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -72046,7 +72046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{577A8CDB-DCE2-4409-ABF8-20369696E92F}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>

--- a/models/matouqin/Data/dat1.xlsx
+++ b/models/matouqin/Data/dat1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\model\yayue\models\matouqin\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B43689A-AF76-48C4-BE23-9198D5D899BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365AC536-CBF7-460F-A6C1-59BF0228DB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="3" xr2:uid="{AEEBE647-0CC9-4089-B5C6-ED9E548DECB5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="2" xr2:uid="{AEEBE647-0CC9-4089-B5C6-ED9E548DECB5}"/>
   </bookViews>
   <sheets>
     <sheet name="cf" sheetId="1" r:id="rId1"/>
@@ -154,33 +154,7 @@
     <author>Zixuan</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{BADD4449-C79D-4F05-897F-C8E37E110D4C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Zixuan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-Duration time between decision period.(hour)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{40D42275-49C5-4C8B-90D7-AAA749E75B3C}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{40D42275-49C5-4C8B-90D7-AAA749E75B3C}">
       <text>
         <r>
           <rPr>
@@ -1205,7 +1179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Time period</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1252,10 +1226,6 @@
   </si>
   <si>
     <t>e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hrs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1767,7 +1737,7 @@
   <dimension ref="A1:B8761"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1780,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -71883,18 +71853,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -71912,27 +71882,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F00EEF-937B-44B8-81B6-78FAA64D53D6}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
         <v>0.05</v>
       </c>
     </row>
@@ -71947,21 +71911,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA09C07B-97B6-4944-81CD-58D528438C11}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -71972,7 +71936,8 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>2.4</v>
+        <f>B2*A2</f>
+        <v>2.4000000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -72017,7 +71982,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1">
         <v>5</v>
@@ -72046,8 +72011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{577A8CDB-DCE2-4409-ABF8-20369696E92F}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -72066,7 +72031,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -72086,7 +72051,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>1000</v>
@@ -72118,7 +72083,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>500</v>
@@ -72160,7 +72125,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -72187,10 +72152,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2">
-        <v>300</v>
+        <v>0.2</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -72199,7 +72164,7 @@
         <v>0.7</v>
       </c>
       <c r="E2">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F2">
         <v>0.05</v>

--- a/models/matouqin/Data/dat1.xlsx
+++ b/models/matouqin/Data/dat1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\model\yayue\models\matouqin\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365AC536-CBF7-460F-A6C1-59BF0228DB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC0ECE5-6050-4F49-AA82-A13B93C8941E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="2" xr2:uid="{AEEBE647-0CC9-4089-B5C6-ED9E548DECB5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="3" xr2:uid="{AEEBE647-0CC9-4089-B5C6-ED9E548DECB5}"/>
   </bookViews>
   <sheets>
     <sheet name="cf" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="fuel-cell" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -289,6 +290,43 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{A40212BF-2851-4E26-820F-338F35F4C3CF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Zixuan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+The cost of using hydrogen energy, </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>RMB/kg</t>
         </r>
       </text>
     </comment>
@@ -1179,7 +1217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Time period</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1283,6 +1321,10 @@
     <t>hini</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>hUse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1349,7 +1391,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1385,6 +1427,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1394,7 +1445,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1417,6 +1468,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -71884,7 +71938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F00EEF-937B-44B8-81B6-78FAA64D53D6}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -71909,15 +71963,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA09C07B-97B6-4944-81CD-58D528438C11}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -71927,8 +71981,11 @@
       <c r="C1" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3</v>
       </c>
@@ -71938,6 +71995,9 @@
       <c r="C2">
         <f>B2*A2</f>
         <v>2.4000000000000004</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
